--- a/ExportTemplates/questionTemplate.xlsx
+++ b/ExportTemplates/questionTemplate.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="SampleTestSet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -145,9 +143,6 @@
     <t>Repeat Time</t>
   </si>
   <si>
-    <t>Online Test - Import Question</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -167,6 +162,9 @@
   </si>
   <si>
     <t>Answer 4</t>
+  </si>
+  <si>
+    <t>Online Test - Export Question</t>
   </si>
 </sst>
 </file>
@@ -295,49 +293,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="testset1.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6600825" cy="8191500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -625,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,7 +605,7 @@
     <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:14" ht="13.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -689,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -704,22 +659,22 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -730,29 +685,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ExportTemplates/questionTemplate.xlsx
+++ b/ExportTemplates/questionTemplate.xlsx
@@ -140,9 +140,6 @@
     <t>Correct Answers</t>
   </si>
   <si>
-    <t>Repeat Time</t>
-  </si>
-  <si>
     <t>File Name</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Online Test - Export Question</t>
+  </si>
+  <si>
+    <t>Times of listening</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="52.7109375" customWidth="1"/>
     <col min="9" max="9" width="51.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" style="4" customWidth="1"/>
@@ -605,7 +605,7 @@
     <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
     <row r="2" spans="2:14" ht="13.5" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -644,37 +644,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ExportTemplates/questionTemplate.xlsx
+++ b/ExportTemplates/questionTemplate.xlsx
@@ -20,18 +20,83 @@
     <author>huyen.ngoc.tran</author>
   </authors>
   <commentList>
+    <comment ref="B5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Reference number of the question.
+The number is unique for each content. (The questions or sub-questions about the same content must not bear a reference number.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Type of question - required field.
+(Reading/Listening/Writing…)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sub-type of each type - required field.
+E.g. 
+- Reading: Paired reading/ Article
+- Listening: Conversations/Short speeches
+- Writing: Essay/ Email</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Source of question - required field.
+Notice: Sources must be created in Source page in advance. Otherwise, questions cannot be imported from the Excel file.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>thien.kieu:</t>
-        </r>
+          <t xml:space="preserve">Names of the media files:
+- Audio files (mp3 format only) for the Listening questions
+- Picture files for the paired reading sub-type.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -39,49 +104,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-for listening and table of reading
+          <t xml:space="preserve">The number of times candicates are allowed to listen to the audio. This is applicable to listening questions only.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>thien.kieu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only for listening. Number of times to listen audio
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H5" authorId="1">
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>huyen.ngoc.tran:</t>
-        </r>
+          <t>Content of the questions. E.g. Reading article content, Writing prompts, etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -89,8 +131,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-Cannot insert picture here</t>
+          <t>Questions about the content. For example: questions that follow the reading article or the listening recording</t>
         </r>
       </text>
     </comment>
@@ -98,23 +139,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>huyen.ngoc.tran:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Correct Answers shold be A/B/C</t>
+          <t>The number that indicates the correct answer.</t>
         </r>
       </text>
     </comment>
@@ -171,7 +201,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +224,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -208,13 +231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -267,10 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -580,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExportTemplates/questionTemplate.xlsx
+++ b/ExportTemplates/questionTemplate.xlsx
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="D5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="F5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="G5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1">
+    <comment ref="I5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1">
+    <comment ref="K5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Type</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Times of listening</t>
+  </si>
+  <si>
+    <t>Platform</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,8 +295,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,108 +603,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N5"/>
+  <dimension ref="B1:O5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="52.7109375" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:15" ht="11.25" customHeight="1"/>
+    <row r="2" spans="2:15" ht="13.5" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+    <row r="3" spans="2:15" ht="21.75" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="2:14" ht="12.75" customHeight="1"/>
-    <row r="5" spans="2:14" s="3" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="2:15" ht="12.75" customHeight="1"/>
+    <row r="5" spans="2:15" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="B2:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ExportTemplates/questionTemplate.xlsx
+++ b/ExportTemplates/questionTemplate.xlsx
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,14 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,7 +610,7 @@
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
@@ -668,7 +665,7 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
